--- a/BackTest/2019-10-29 BackTest GXC.xlsx
+++ b/BackTest/2019-10-29 BackTest GXC.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -21918,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="n">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="n">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
@@ -22041,7 +22041,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="n">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
@@ -22117,14 +22117,12 @@
         <v>654</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>652</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22158,14 +22156,12 @@
         <v>653.7</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>650</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -22199,14 +22195,12 @@
         <v>652.4</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>646</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -22240,14 +22234,12 @@
         <v>651.6</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>641</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -22281,14 +22273,12 @@
         <v>650.6</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>642</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -22322,14 +22312,12 @@
         <v>650.45</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>654</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -22363,14 +22351,12 @@
         <v>650.4</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>655</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -22404,14 +22390,12 @@
         <v>649.75</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>643</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -22445,14 +22429,12 @@
         <v>649.7</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>654</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -22486,14 +22468,12 @@
         <v>649.75</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>654</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -22527,14 +22507,12 @@
         <v>649.85</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>653</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -22568,14 +22546,12 @@
         <v>650.3</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>655</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -22609,14 +22585,12 @@
         <v>650.95</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>655</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -22650,14 +22624,12 @@
         <v>651.75</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>657</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -22691,14 +22663,12 @@
         <v>652.85</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>663</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
@@ -22732,14 +22702,12 @@
         <v>652.6</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>651</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
@@ -22773,14 +22741,12 @@
         <v>652.2</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>653</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
@@ -22814,14 +22780,12 @@
         <v>651.8</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>650</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
@@ -22855,14 +22819,12 @@
         <v>651.85</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>659</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
@@ -22896,14 +22858,12 @@
         <v>652.35</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>660</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
@@ -22937,14 +22897,12 @@
         <v>652.15</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>648</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
@@ -22978,14 +22936,12 @@
         <v>652.15</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>650</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -23019,14 +22975,12 @@
         <v>652.1</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>645</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -23060,14 +23014,12 @@
         <v>652.45</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>648</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -23101,14 +23053,12 @@
         <v>652.7</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>647</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -23142,14 +23092,12 @@
         <v>652.65</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>653</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -23183,14 +23131,12 @@
         <v>652</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>642</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -23224,14 +23170,12 @@
         <v>651.95</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>642</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -23265,14 +23209,12 @@
         <v>651.6</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>647</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -23306,14 +23248,12 @@
         <v>651.65</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>655</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -23347,14 +23287,12 @@
         <v>651.85</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>657</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
@@ -23388,14 +23326,12 @@
         <v>651.2</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>642</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
@@ -23429,14 +23365,12 @@
         <v>651.05</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>652</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
@@ -23470,14 +23404,12 @@
         <v>650.4</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>644</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
@@ -23511,14 +23443,12 @@
         <v>649.6</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>647</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
@@ -23552,14 +23482,12 @@
         <v>649.65</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>652</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
@@ -23593,14 +23521,12 @@
         <v>649.35</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>647</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
@@ -23634,14 +23560,12 @@
         <v>649.4</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>651</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
@@ -23675,14 +23599,12 @@
         <v>648.65</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>644</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
@@ -23716,14 +23638,12 @@
         <v>647.85</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>644</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
@@ -23757,14 +23677,12 @@
         <v>648</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>651</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
@@ -23798,14 +23716,12 @@
         <v>647.65</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>643</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
@@ -23839,14 +23755,12 @@
         <v>647.55</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>643</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
@@ -23880,14 +23794,12 @@
         <v>647.3</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>643</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
@@ -23921,14 +23833,12 @@
         <v>647.25</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>646</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest GXC.xlsx
+++ b/BackTest/2019-10-29 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>78375.56269317</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>81235.65649317</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>81235.65649317</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1903,10 +1903,14 @@
         <v>69825.02096883998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>634</v>
+      </c>
+      <c r="J46" t="n">
+        <v>634</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1936,11 +1940,19 @@
         <v>69135.29106883997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>659</v>
+      </c>
+      <c r="J47" t="n">
+        <v>634</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1981,19 @@
         <v>69130.75016883996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>648</v>
+      </c>
+      <c r="J48" t="n">
+        <v>634</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,10 +2022,14 @@
         <v>69130.75016883996</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>642</v>
+      </c>
+      <c r="J49" t="n">
+        <v>642</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2035,11 +2059,19 @@
         <v>69049.18036883997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>642</v>
+      </c>
+      <c r="J50" t="n">
+        <v>642</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2100,19 @@
         <v>69089.18036883997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>640</v>
+      </c>
+      <c r="J51" t="n">
+        <v>642</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2141,19 @@
         <v>69089.18036883997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>651</v>
+      </c>
+      <c r="J52" t="n">
+        <v>642</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2182,19 @@
         <v>69156.34056883997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>651</v>
+      </c>
+      <c r="J53" t="n">
+        <v>642</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2223,19 @@
         <v>69236.34056883997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>652</v>
+      </c>
+      <c r="J54" t="n">
+        <v>642</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2264,19 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>668</v>
+      </c>
+      <c r="J55" t="n">
+        <v>642</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2305,19 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>669</v>
+      </c>
+      <c r="J56" t="n">
+        <v>642</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2346,19 @@
         <v>69279.28226883996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>669</v>
+      </c>
+      <c r="J57" t="n">
+        <v>642</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2387,19 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>676</v>
+      </c>
+      <c r="J58" t="n">
+        <v>642</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2428,19 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>697</v>
+      </c>
+      <c r="J59" t="n">
+        <v>642</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2472,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>642</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2511,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>642</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2547,19 @@
         <v>72665.16476883997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>703</v>
+      </c>
+      <c r="J62" t="n">
+        <v>642</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2588,19 @@
         <v>75513.30046883997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>703</v>
+      </c>
+      <c r="J63" t="n">
+        <v>642</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2629,19 @@
         <v>84580.10676883996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>717</v>
+      </c>
+      <c r="J64" t="n">
+        <v>642</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2670,19 @@
         <v>84590.10676883996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>730</v>
+      </c>
+      <c r="J65" t="n">
+        <v>642</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>642</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>642</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>642</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>642</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>642</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>642</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>642</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>642</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>642</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>642</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>642</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>642</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>642</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>642</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>642</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>642</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>642</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>642</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>642</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>642</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3491,17 @@
         <v>99175.54594235001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>642</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3530,17 @@
         <v>99180.54594235001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>642</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3569,17 @@
         <v>97086.86524235002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>642</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3608,17 @@
         <v>97085.86524235002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>642</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>642</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3686,17 @@
         <v>98392.17084235002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>642</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>642</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>642</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>642</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>642</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>642</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>642</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>642</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>642</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>642</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>642</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>642</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>642</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,15 +4193,23 @@
         <v>96300.45417833002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>642</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1.149205607476636</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.082018927444795</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3982,7 +4366,7 @@
         <v>94182.28567833002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4399,7 @@
         <v>93182.28567833002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4432,7 @@
         <v>92984.28567833002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4465,7 @@
         <v>92723.97427833002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4498,7 @@
         <v>90978.57427833002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4531,7 @@
         <v>90117.11527833002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4564,7 @@
         <v>91117.11527833002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4597,7 @@
         <v>94092.97487833002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4630,7 @@
         <v>95046.81267833001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4663,7 @@
         <v>95795.44227833001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -8734,7 +9118,7 @@
         <v>142128.37688636</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9151,7 @@
         <v>142227.37688636</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9184,7 @@
         <v>141697.31180358</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9922,7 +10306,7 @@
         <v>156254.55978945</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +10372,7 @@
         <v>156656.51696079</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10285,7 +10669,7 @@
         <v>170867.90686079</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10702,7 @@
         <v>175990.28526079</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10735,7 @@
         <v>175159.64076079</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10768,7 @@
         <v>174390.91326079</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10801,7 @@
         <v>174430.91326079</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10834,7 @@
         <v>169918.07006079</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10714,7 +11098,7 @@
         <v>169339.17596079</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11131,7 @@
         <v>178552.99786079</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11164,7 @@
         <v>174961.45706079</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11197,7 @@
         <v>178494.67896079</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11230,7 @@
         <v>191060.47426079</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11263,7 @@
         <v>194020.47426079</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11296,7 @@
         <v>193754.68926079</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11329,7 @@
         <v>202541.99826079</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11362,7 @@
         <v>202405.95736079</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11395,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11428,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11461,7 @@
         <v>204972.01346079</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11494,7 @@
         <v>205772.01346079</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11527,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11560,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11593,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11626,7 @@
         <v>208231.22326079</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11374,7 +11758,7 @@
         <v>206989.71432458</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11791,7 @@
         <v>205358.11842619</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11824,7 @@
         <v>205278.11842619</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11857,7 @@
         <v>204618.11842619</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11890,7 @@
         <v>206981.13202619</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11923,7 @@
         <v>206046.14932619</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11956,7 @@
         <v>205797.19522619</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11989,7 @@
         <v>205699.67892619</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +12022,7 @@
         <v>202634.46952619</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +12055,7 @@
         <v>202634.46952619</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +12088,7 @@
         <v>209948.54592619</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +12121,7 @@
         <v>212500.92140314</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +12154,7 @@
         <v>209976.48793264</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +12187,7 @@
         <v>210721.62173264</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +12220,7 @@
         <v>209866.20083264</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +12253,7 @@
         <v>211190.90273264</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +12286,7 @@
         <v>211191.90273264</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +12319,7 @@
         <v>210587.4753326401</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +12352,7 @@
         <v>211308.02283264</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12385,7 @@
         <v>211083.02283264</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12418,7 @@
         <v>211506.52813264</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12451,7 @@
         <v>211507.52813264</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12529,7 +12913,7 @@
         <v>210500.37458519</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12946,7 @@
         <v>210026.72268519</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12979,7 @@
         <v>210028.72268519</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13012,7 @@
         <v>209250.22068519</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13045,7 @@
         <v>211677.85308519</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13078,7 @@
         <v>208686.02168519</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13111,7 @@
         <v>209158.09738519</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13144,7 @@
         <v>210301.74838519</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13177,7 @@
         <v>208297.55658519</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13210,7 @@
         <v>208298.55658519</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13243,7 @@
         <v>208157.02688519</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13276,7 @@
         <v>208158.02688519</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13309,7 @@
         <v>208230.18518519</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13342,7 @@
         <v>210608.66618519</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13375,7 @@
         <v>210608.66618519</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13408,7 @@
         <v>209717.49308519</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13441,7 @@
         <v>210444.87818519</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13474,7 @@
         <v>206498.38558519</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13507,7 @@
         <v>206499.38558519</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13540,7 @@
         <v>205935.33368519</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13288,7 +13672,7 @@
         <v>207861.81118519</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13705,7 @@
         <v>207581.81118519</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13738,7 @@
         <v>207582.81118519</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13771,7 @@
         <v>206769.96868519</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13804,7 @@
         <v>206770.96868519</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13837,7 @@
         <v>206276.88268519</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13870,7 @@
         <v>206336.88268519</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13903,7 @@
         <v>205245.80628519</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13936,7 @@
         <v>202112.07438519</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13969,7 @@
         <v>192978.66548519</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +14002,7 @@
         <v>192978.66548519</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +14035,7 @@
         <v>194135.10978519</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +14068,7 @@
         <v>193353.72708519</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +14101,7 @@
         <v>192916.72708519</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +14134,7 @@
         <v>192916.72708519</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +14167,7 @@
         <v>194326.01498519</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +14200,7 @@
         <v>191526.99698519</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +14233,7 @@
         <v>191526.99698519</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +14266,7 @@
         <v>199322.30178519</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +14299,7 @@
         <v>199323.30178519</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14332,7 @@
         <v>199324.30178519</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14365,7 @@
         <v>199323.30178519</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14398,7 @@
         <v>197385.79048519</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14431,7 @@
         <v>197386.79048519</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14464,7 @@
         <v>197386.79048519</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14542,7 +14926,7 @@
         <v>191619.21408519</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14959,7 @@
         <v>191619.21408519</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14992,7 @@
         <v>188863.57688519</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +15025,7 @@
         <v>189709.57688519</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +15058,7 @@
         <v>188830.11728519</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +15091,7 @@
         <v>185663.71868519</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +15124,7 @@
         <v>185904.93738519</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +15157,7 @@
         <v>185608.96108519</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +15190,7 @@
         <v>182000.62128519</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +15223,7 @@
         <v>182001.62128519</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +15256,7 @@
         <v>179124.99058519</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +15289,7 @@
         <v>177456.69098519</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +15322,7 @@
         <v>181657.85598519</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +15355,7 @@
         <v>181491.42358519</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15388,7 @@
         <v>181492.42638519</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15421,7 @@
         <v>181519.42638519</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15487,7 @@
         <v>179224.33258519</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15520,7 @@
         <v>176078.87088519</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15553,7 @@
         <v>175868.38818519</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15586,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15619,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15652,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15685,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15718,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15751,7 @@
         <v>176172.80908519</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16390,7 +16774,7 @@
         <v>172254.06508519</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -22462,17 +22846,11 @@
         <v>154116.3681851901</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22501,17 +22879,11 @@
         <v>154116.3681851901</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22540,17 +22912,11 @@
         <v>153935.3421851901</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22579,17 +22945,11 @@
         <v>151734.5965851901</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22618,17 +22978,11 @@
         <v>151827.0661851901</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22657,17 +23011,11 @@
         <v>152015.4060851901</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22696,17 +23044,11 @@
         <v>152202.7469851901</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22739,11 +23081,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22776,11 +23114,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22813,11 +23147,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22850,11 +23180,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22887,11 +23213,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23246,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22957,17 +23275,11 @@
         <v>151102.2131371701</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23000,11 +23312,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23033,17 +23341,11 @@
         <v>151243.5486371701</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23076,11 +23378,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23109,17 +23407,11 @@
         <v>150740.5989371701</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23148,17 +23440,11 @@
         <v>150829.0717371701</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23187,17 +23473,11 @@
         <v>150582.4116371701</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23226,17 +23506,11 @@
         <v>150648.9184371701</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23265,17 +23539,11 @@
         <v>150649.9184371701</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23308,11 +23576,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23345,11 +23609,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23382,11 +23642,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23675,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23456,11 +23708,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23493,11 +23741,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23526,17 +23770,11 @@
         <v>150737.9799371701</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23565,17 +23803,11 @@
         <v>150738.9799371701</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23604,17 +23836,11 @@
         <v>150597.9305371701</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23643,17 +23869,11 @@
         <v>150610.1274371701</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
-      </c>
-      <c r="I700" t="n">
-        <v>648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23682,17 +23902,11 @@
         <v>150557.7605371701</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
-      </c>
-      <c r="I701" t="n">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23721,17 +23935,11 @@
         <v>150556.3892371701</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
-      </c>
-      <c r="I702" t="n">
-        <v>649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23760,17 +23968,11 @@
         <v>150652.8930371701</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
-      </c>
-      <c r="I703" t="n">
-        <v>648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23799,17 +24001,11 @@
         <v>150638.3984371701</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
-      </c>
-      <c r="I704" t="n">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23842,11 +24038,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23875,17 +24067,11 @@
         <v>149973.6395371701</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="n">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23914,17 +24100,11 @@
         <v>151652.5421371701</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23953,17 +24133,11 @@
         <v>151684.5421371701</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
-      </c>
-      <c r="I708" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23996,11 +24170,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24029,17 +24199,11 @@
         <v>151617.5555371701</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24072,11 +24236,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24105,17 +24265,11 @@
         <v>151639.0572371701</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24144,17 +24298,11 @@
         <v>151334.4738371701</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24187,11 +24335,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24220,17 +24364,11 @@
         <v>151680.4738371701</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24263,11 +24401,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24296,17 +24430,11 @@
         <v>151317.0628371701</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24335,17 +24463,11 @@
         <v>151683.7615371701</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
-      </c>
-      <c r="I718" t="n">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24378,11 +24500,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24415,11 +24533,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24448,17 +24562,11 @@
         <v>150253.9209371701</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
-      </c>
-      <c r="I721" t="n">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24487,17 +24595,11 @@
         <v>149877.2318371701</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24526,17 +24628,11 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24565,17 +24661,11 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24604,17 +24694,11 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24643,17 +24727,11 @@
         <v>149204.9413371701</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24682,17 +24760,11 @@
         <v>149204.9413371701</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24721,17 +24793,11 @@
         <v>148395.4649371701</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24760,17 +24826,11 @@
         <v>148245.4649371701</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24799,17 +24859,11 @@
         <v>149239.6976371701</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24838,17 +24892,11 @@
         <v>148461.6936371701</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24877,17 +24925,11 @@
         <v>148462.6936371701</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24916,23 +24958,17 @@
         <v>148351.9677371701</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
       <c r="M733" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>